--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0050F337-C33B-404E-B45C-0B041AF2E2AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0231979-5E81-FD48-A2F2-2CBCD460DEEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projects General Data" sheetId="6" r:id="rId1"/>
+    <sheet name="Projects Coverage Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Classes Coverage Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Methds Coverage Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Method Attributes" sheetId="2" r:id="rId5"/>
+    <sheet name="Class Attributes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Coverage</t>
   </si>
   <si>
-    <t>hector-hector-2.0-0</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -42,20 +44,119 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Covered</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>LeastActiveBalancingPolicyTest</t>
+  </si>
+  <si>
+    <t>#Assertions</t>
+  </si>
+  <si>
+    <t>#Costumized Assertions</t>
+  </si>
+  <si>
+    <t>#Junit Assertions</t>
+  </si>
+  <si>
+    <t>Documanted?</t>
+  </si>
+  <si>
+    <t>Used Mockito?</t>
+  </si>
+  <si>
+    <t>#Lines</t>
+  </si>
+  <si>
+    <t>Covered Statements</t>
+  </si>
+  <si>
+    <t>Total Statements</t>
+  </si>
+  <si>
+    <t>hector-core</t>
+  </si>
+  <si>
+    <t>testSkipExhausted</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Try/Catch</t>
+  </si>
+  <si>
+    <t>Covered Instructions</t>
+  </si>
+  <si>
+    <t>Total Instructions</t>
+  </si>
+  <si>
+    <t>apache/commons-collections</t>
+  </si>
+  <si>
+    <t>apache/commons-dbcp</t>
+  </si>
+  <si>
+    <t>apache/commons-exec</t>
+  </si>
+  <si>
+    <t>apache/commons-functor</t>
+  </si>
+  <si>
+    <t>hector-client/hector</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>apache/commons-math</t>
+  </si>
+  <si>
+    <t>apache/commons-net</t>
+  </si>
+  <si>
+    <t>apache/commons-validator</t>
+  </si>
+  <si>
+    <t>apache/empire-db</t>
+  </si>
+  <si>
+    <t>apache/commons-io</t>
+  </si>
+  <si>
+    <t>apache/commons-jxpath</t>
+  </si>
+  <si>
+    <t>apache/httpcore</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>#Tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;True&quot;;&quot;True&quot;;&quot;False&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,7 +165,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -90,9 +199,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,49 +535,509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC055D-6B37-0F4C-8D41-C00E4AC28B5C}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA3ADE-ADCC-A949-B813-D7C5E4B69CA1}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>95</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8">
+        <v>18339</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1320</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC055D-6B37-0F4C-8D41-C00E4AC28B5C}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927F755C-2DB5-0948-ABDB-4FCE6356432A}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E2667-1089-6B4F-BADD-9330DD0F8293}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F50360-6DBA-B845-A032-C536B5B5A114}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C43C32-EBEA-D94F-972E-EAD3D07260B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0231979-5E81-FD48-A2F2-2CBCD460DEEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7FC0FF-8AC2-E748-AD5C-56D5E581D221}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects General Data" sheetId="6" r:id="rId1"/>
-    <sheet name="Projects Coverage Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Coverage Metrices" sheetId="1" r:id="rId2"/>
     <sheet name="Classes Coverage Data" sheetId="4" r:id="rId3"/>
     <sheet name="Methds Coverage Data" sheetId="3" r:id="rId4"/>
     <sheet name="Method Attributes" sheetId="2" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Coverage</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>#Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joel-costigliola/assertj-core </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>No-Tests</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -220,6 +229,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,163 +558,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA3ADE-ADCC-A949-B813-D7C5E4B69CA1}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="12"/>
+    <col min="4" max="4" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
+      <c r="B4" s="10">
+        <v>1971</v>
+      </c>
+      <c r="C4" s="10">
         <v>95</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="10">
+        <v>7249</v>
+      </c>
+      <c r="C5" s="10">
+        <v>867</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>18339</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>1320</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="8">
+        <v>134531</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6523</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="B10" s="8">
+        <v>11293</v>
+      </c>
+      <c r="C10" s="10">
+        <v>536</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -701,162 +744,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC055D-6B37-0F4C-8D41-C00E4AC28B5C}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="6">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>0.89200000000000002</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D6" s="6">
         <v>0.67800000000000005</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F6" s="6">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E5" s="6">
+      <c r="H6" s="6">
         <v>0.92</v>
       </c>
-      <c r="F5" s="6">
+      <c r="J6" s="6">
         <v>0.97</v>
       </c>
-      <c r="G5" s="6">
+      <c r="L6" s="6">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>0.90900000000000003</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D7" s="6">
         <v>0.82099999999999995</v>
       </c>
-      <c r="D6" s="6">
+      <c r="F7" s="6">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E6" s="6">
+      <c r="H7" s="6">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F6" s="9">
+      <c r="J7" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="L7" s="6">
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>0.94499999999999995</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D9" s="6">
         <v>0.84199999999999997</v>
       </c>
-      <c r="D8" s="6">
+      <c r="F9" s="6">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E8" s="6">
+      <c r="G9" s="6">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H9" s="6">
         <v>0.89800000000000002</v>
       </c>
-      <c r="F8" s="6">
+      <c r="J9" s="6">
         <v>0.96599999999999997</v>
       </c>
-      <c r="G8" s="6">
+      <c r="L9" s="6">
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7FC0FF-8AC2-E748-AD5C-56D5E581D221}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1599FF77-7A81-8F4E-B21C-82D7038B9232}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects General Data" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Method Attributes" sheetId="2" r:id="rId5"/>
     <sheet name="Class Attributes" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Coverage</t>
   </si>
@@ -56,24 +56,6 @@
     <t>#Junit Assertions</t>
   </si>
   <si>
-    <t>Documanted?</t>
-  </si>
-  <si>
-    <t>Used Mockito?</t>
-  </si>
-  <si>
-    <t>#Lines</t>
-  </si>
-  <si>
-    <t>Covered Statements</t>
-  </si>
-  <si>
-    <t>Total Statements</t>
-  </si>
-  <si>
-    <t>hector-core</t>
-  </si>
-  <si>
     <t>testSkipExhausted</t>
   </si>
   <si>
@@ -156,6 +138,39 @@
   </si>
   <si>
     <t>No-Tests</t>
+  </si>
+  <si>
+    <t>Instructions-Coverage</t>
+  </si>
+  <si>
+    <t>Floats_assertIsZero_Test</t>
+  </si>
+  <si>
+    <t>should_succeed_since_actual_is_not_zero_whatever_custom_comparison_strategy_is</t>
+  </si>
+  <si>
+    <t>getWithAndroidUriUrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square/retrofit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hector-client/hector </t>
+  </si>
+  <si>
+    <t>Mockito?</t>
+  </si>
+  <si>
+    <t>Hamcrest?</t>
+  </si>
+  <si>
+    <t>Documentation?</t>
+  </si>
+  <si>
+    <t>Throws?</t>
+  </si>
+  <si>
+    <t>Linear?</t>
   </si>
 </sst>
 </file>
@@ -196,9 +211,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -208,27 +241,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -241,8 +277,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,183 +636,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA3ADE-ADCC-A949-B813-D7C5E4B69CA1}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="12"/>
-    <col min="4" max="4" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="28" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1971</v>
+      </c>
+      <c r="C4" s="11">
+        <v>95</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7249</v>
+      </c>
+      <c r="C5" s="11">
+        <v>867</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11">
+        <v>18339</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1320</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="B8" s="10">
+        <v>134531</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6523</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10">
-        <v>1971</v>
-      </c>
-      <c r="C4" s="10">
-        <v>95</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="B10" s="10">
+        <v>11293</v>
+      </c>
+      <c r="C10" s="11">
+        <v>536</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10">
-        <v>7249</v>
-      </c>
-      <c r="C5" s="10">
-        <v>867</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10">
-        <v>18339</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1320</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8">
-        <v>134531</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6523</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8">
-        <v>11293</v>
-      </c>
-      <c r="C10" s="10">
-        <v>536</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -744,236 +832,541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC055D-6B37-0F4C-8D41-C00E4AC28B5C}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="28.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="26">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="26">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="26">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="26">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="26">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.84</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.97</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.873</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.97</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.74299999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="20"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -999,11 +1392,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,10 +1407,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1030,37 +1423,78 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E2667-1089-6B4F-BADD-9330DD0F8293}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1072,24 +1506,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F50360-6DBA-B845-A032-C536B5B5A114}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1106,10 +1541,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -1118,33 +1553,31 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>

--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BADC73-F757-9047-802E-DC79A4EEAFEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3146B8AA-1B59-8D44-BE15-D6A3CB62B47A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects General Data" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="66">
   <si>
     <t>Project</t>
   </si>
@@ -188,6 +188,48 @@
   </si>
   <si>
     <t>testExecuteUpdateStringStringArray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google/jimfs </t>
+  </si>
+  <si>
+    <t>JimfsOutputStreamTest</t>
+  </si>
+  <si>
+    <t>testWrite_singleByte_overwriting</t>
+  </si>
+  <si>
+    <t>TestUnaryAnd</t>
+  </si>
+  <si>
+    <t>testEquals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jknack/handlebars.java </t>
+  </si>
+  <si>
+    <t>Hbs530</t>
+  </si>
+  <si>
+    <t>indexOutOfBoundsExceptioWhenUsingBlockParametersOnAnEmptyList</t>
+  </si>
+  <si>
+    <t>For Loop with Assertions</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>BeforeAll</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>AfterAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eBay/cors-filter </t>
   </si>
 </sst>
 </file>
@@ -197,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;True&quot;;&quot;True&quot;;&quot;False&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +260,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -345,6 +394,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA3ADE-ADCC-A949-B813-D7C5E4B69CA1}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,6 +910,21 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -858,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC055D-6B37-0F4C-8D41-C00E4AC28B5C}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,6 +1312,9 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
       <c r="D15" s="23"/>
@@ -1250,6 +1329,9 @@
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="B16" s="18"/>
       <c r="C16" s="13"/>
       <c r="D16" s="23"/>
@@ -1281,6 +1363,9 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="B18" s="18"/>
       <c r="C18" s="13"/>
       <c r="D18" s="23"/>
@@ -1408,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927F755C-2DB5-0948-ABDB-4FCE6356432A}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1424,10 +1509,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1450,44 +1535,116 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1496,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E2667-1089-6B4F-BADD-9330DD0F8293}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1772,46 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F50360-6DBA-B845-A032-C536B5B5A114}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1646,10 +1842,11 @@
     <col min="12" max="12" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="4"/>
+    <col min="15" max="15" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1692,8 +1889,11 @@
       <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -1736,8 +1936,11 @@
       <c r="N2" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -1780,8 +1983,11 @@
       <c r="N3" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1824,8 +2030,11 @@
       <c r="N4" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -1868,8 +2077,11 @@
       <c r="N5" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1892,13 +2104,16 @@
         <v>43</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>44</v>
@@ -1907,6 +2122,150 @@
         <v>43</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1917,12 +2276,111 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033F420-6C0D-2346-9C13-7B88AD9007EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130A586F-C63D-D042-83FB-DE0A953A3A64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AAD6DA-11CB-5446-A57E-B570A514117B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects General Data" sheetId="6" r:id="rId1"/>
-    <sheet name="Coverage Metrices" sheetId="1" r:id="rId2"/>
+    <sheet name="Project Atrributes" sheetId="6" r:id="rId1"/>
+    <sheet name="Projects Coverage Data" sheetId="1" r:id="rId2"/>
     <sheet name="Classes Coverage Data" sheetId="4" r:id="rId3"/>
     <sheet name="Methds Coverage Data" sheetId="3" r:id="rId4"/>
     <sheet name="Method Attributes" sheetId="2" r:id="rId5"/>
     <sheet name="Project Attributrs" sheetId="7" r:id="rId6"/>
     <sheet name="Class Attributes" sheetId="8" r:id="rId7"/>
     <sheet name="Assertiom Kinds" sheetId="5" r:id="rId8"/>
+    <sheet name="Anti-Patterns" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="80">
   <si>
     <t>Project</t>
   </si>
@@ -269,6 +270,9 @@
   </si>
   <si>
     <t>Main Loc (No Tests)</t>
+  </si>
+  <si>
+    <t>Costumized</t>
   </si>
 </sst>
 </file>
@@ -724,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA3ADE-ADCC-A949-B813-D7C5E4B69CA1}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,22 +931,22 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="21"/>
@@ -1175,12 +1179,24 @@
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="13">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.84899999999999998</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -1491,7 +1507,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,12 +1578,24 @@
       <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2498,7 +2526,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2598,16 +2626,36 @@
       <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="C3" s="6">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2724,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C43C32-EBEA-D94F-972E-EAD3D07260B4}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2735,11 +2783,11 @@
     <col min="1" max="1" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2750,10 +2798,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -2764,10 +2815,25 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC98B6C-0E12-1540-8AD9-B9956A135085}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AAD6DA-11CB-5446-A57E-B570A514117B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A67D4-22D8-2345-BF64-9AE02A2D368D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Atrributes" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
   <si>
     <t>Project</t>
   </si>
@@ -273,6 +273,39 @@
   </si>
   <si>
     <t>Costumized</t>
+  </si>
+  <si>
+    <t>Smell 2: Resource Optimism</t>
+  </si>
+  <si>
+    <t>Smell 1: Mystery Guest</t>
+  </si>
+  <si>
+    <t>Smell 3: Test Run War</t>
+  </si>
+  <si>
+    <t>Smell 4: General Fixture</t>
+  </si>
+  <si>
+    <t>Smell 5: Eager Test</t>
+  </si>
+  <si>
+    <t>Smell 6: Lazy Test</t>
+  </si>
+  <si>
+    <t>Smell 7: Assertion Roulette</t>
+  </si>
+  <si>
+    <t>Smell 8: Indirect Testing</t>
+  </si>
+  <si>
+    <t>Smell 9: For Testers Only</t>
+  </si>
+  <si>
+    <t>Smell 10: Sensitive Equality</t>
+  </si>
+  <si>
+    <t>Smell 11: Test Code Duplication</t>
   </si>
 </sst>
 </file>
@@ -905,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC055D-6B37-0F4C-8D41-C00E4AC28B5C}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1964,7 +1997,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2828,12 +2861,74 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC98B6C-0E12-1540-8AD9-B9956A135085}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A67D4-22D8-2345-BF64-9AE02A2D368D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA5705-1D21-244C-ACEC-816BEF4B1411}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Atrributes" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="176">
   <si>
     <t>Project</t>
   </si>
@@ -306,6 +306,261 @@
   </si>
   <si>
     <t>Smell 11: Test Code Duplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doanduyhai/Achilles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropwizard/dropwizard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldmansachs/gs-collections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhy/jsoup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JodaOrg/joda-time </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raml-org/raml-java-parser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">square/okhttp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">terasolunaorg/terasoluna-gfw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">undertow-io/undertow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zxing/zxing </t>
+  </si>
+  <si>
+    <t>ResultTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damianszczepanik/cucumber-reportin </t>
+  </si>
+  <si>
+    <t>getStatus_ReturnsStatus</t>
+  </si>
+  <si>
+    <t>DBDatabaseDriverHSqlTest</t>
+  </si>
+  <si>
+    <t>testSequence</t>
+  </si>
+  <si>
+    <t>testIsNotSerializable</t>
+  </si>
+  <si>
+    <t>HectorObjectMapperTest</t>
+  </si>
+  <si>
+    <t>testAccessorsAndMutators</t>
+  </si>
+  <si>
+    <t>DefaultKeyValueTest</t>
+  </si>
+  <si>
+    <t>testAdaptNonNull</t>
+  </si>
+  <si>
+    <t>TestIteratorToGeneratorAdapter</t>
+  </si>
+  <si>
+    <t>testIterator</t>
+  </si>
+  <si>
+    <t>UnmodifiableRealVectorAbstractTest</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>SpecInterfacesV10TestCase</t>
+  </si>
+  <si>
+    <t>testCleanDirectory</t>
+  </si>
+  <si>
+    <t>FileUtilsTest</t>
+  </si>
+  <si>
+    <t>testConnectionPool</t>
+  </si>
+  <si>
+    <t>TestPoolableConnection</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>AdamsMoultonIntegratorTest</t>
+  </si>
+  <si>
+    <t>prepareReport_AddsCustomProperties</t>
+  </si>
+  <si>
+    <t>ErrorPageTest</t>
+  </si>
+  <si>
+    <t>testCreateColumn</t>
+  </si>
+  <si>
+    <t>HFactoryTest</t>
+  </si>
+  <si>
+    <t>testNullKeyInList</t>
+  </si>
+  <si>
+    <t>MultigetSliceQueryTest</t>
+  </si>
+  <si>
+    <t>testHelpPage</t>
+  </si>
+  <si>
+    <t>DbGenerateDocsCommandTest</t>
+  </si>
+  <si>
+    <t>testCharacterCount</t>
+  </si>
+  <si>
+    <t>ModeTestCase</t>
+  </si>
+  <si>
+    <t>withoutStringResult</t>
+  </si>
+  <si>
+    <t>LambdaTest</t>
+  </si>
+  <si>
+    <t>testMatching_escapes</t>
+  </si>
+  <si>
+    <t>AbstractGlobMatcherTest</t>
+  </si>
+  <si>
+    <t>failFourYearsValidation</t>
+  </si>
+  <si>
+    <t>SystemPropertiesTestCase</t>
+  </si>
+  <si>
+    <t>testFutureEvaluation</t>
+  </si>
+  <si>
+    <t>ConcurrencyTests</t>
+  </si>
+  <si>
+    <t>ArrayOfString</t>
+  </si>
+  <si>
+    <t>TypeExpressionReferenceFactoryTestCase</t>
+  </si>
+  <si>
+    <t>testAddArgument</t>
+  </si>
+  <si>
+    <t>CommandLineTest</t>
+  </si>
+  <si>
+    <t>testToIntegerBytes</t>
+  </si>
+  <si>
+    <t>Base64Test</t>
+  </si>
+  <si>
+    <t>testRetainMultipleTypes</t>
+  </si>
+  <si>
+    <t>TestFilteredIterable</t>
+  </si>
+  <si>
+    <t>testJoinSingleElement</t>
+  </si>
+  <si>
+    <t>testProduceContentEncoderNotCompleted</t>
+  </si>
+  <si>
+    <t>TestBasicAsyncRequestProducer</t>
+  </si>
+  <si>
+    <t>formatsFullURIs</t>
+  </si>
+  <si>
+    <t>ServletsTest</t>
+  </si>
+  <si>
+    <t>testSupportsNonAsciiTags</t>
+  </si>
+  <si>
+    <t>HtmlParserTest</t>
+  </si>
+  <si>
+    <t>testIsEmpty</t>
+  </si>
+  <si>
+    <t>ArrayStackTest</t>
+  </si>
+  <si>
+    <t>testDoFilterSimpleGET</t>
+  </si>
+  <si>
+    <t>testConstants</t>
+  </si>
+  <si>
+    <t>TestConstants</t>
+  </si>
+  <si>
+    <t>testValid</t>
+  </si>
+  <si>
+    <t>IBANValidatorTest</t>
+  </si>
+  <si>
+    <t>testToString</t>
+  </si>
+  <si>
+    <t>PathServiceTest</t>
+  </si>
+  <si>
+    <t>testTokenizationOfUnknownVariable2Details</t>
+  </si>
+  <si>
+    <t>TokenizerUnknownTokenOrVariableTest</t>
+  </si>
+  <si>
+    <t>testView</t>
+  </si>
+  <si>
+    <t>UserDefinedAttributeProviderTest</t>
+  </si>
+  <si>
+    <t>testIsValid</t>
+  </si>
+  <si>
+    <t>JIS_X_0201_LatinLettersTest</t>
+  </si>
+  <si>
+    <t>testPhysicalClose</t>
+  </si>
+  <si>
+    <t>TestDataSourceXAConnectionFactory</t>
+  </si>
+  <si>
+    <t>serializedForm</t>
+  </si>
+  <si>
+    <t>CheckedObjectByteProcedureSerializationTest</t>
+  </si>
+  <si>
+    <t>testSingleLogMessageToDatabase</t>
+  </si>
+  <si>
+    <t>JDBCLogDatabaseTestCase</t>
   </si>
 </sst>
 </file>
@@ -394,6 +649,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,9 +683,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -759,123 +1014,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA3ADE-ADCC-A949-B813-D7C5E4B69CA1}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A9" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="28" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1971</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>7249</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>18339</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>1320</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7">
         <v>134531</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>6523</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="7">
         <v>11293</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -905,7 +1160,7 @@
       <c r="B15" s="7">
         <v>8583</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>322</v>
       </c>
     </row>
@@ -914,19 +1169,74 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -939,12 +1249,12 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -961,573 +1271,596 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="21"/>
       <c r="K1" s="21"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>0.65700000000000003</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>0.84</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="14">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>0.67800000000000005</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>0.90600000000000003</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.88900000000000001</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="N6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
       <c r="J7" s="23"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="12"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>0.84899999999999998</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.873</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>0.80800000000000005</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="N9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="14">
         <v>0.88200000000000001</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>0.90700000000000003</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>0.86599999999999999</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="14">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <v>0.84899999999999998</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="A21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="A22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="A23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="A24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="A25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="A26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="A27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="A28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="A29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1537,16 +1870,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927F755C-2DB5-0948-ABDB-4FCE6356432A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -1659,7 +1992,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1687,10 +2020,10 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="6"/>
@@ -1746,7 +2079,7 @@
       <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="2">
@@ -1766,6 +2099,310 @@
       </c>
       <c r="H12" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1775,49 +2412,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E2667-1089-6B4F-BADD-9330DD0F8293}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A18" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="33.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1825,28 +2462,28 @@
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1854,97 +2491,97 @@
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -1953,38 +2590,456 @@
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>0.187</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>0.129</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>0.20799999999999999</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +3063,7 @@
     <col min="4" max="4" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -2048,7 +3103,7 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -2089,7 +3144,7 @@
       <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -2136,7 +3191,7 @@
       <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2180,7 +3235,7 @@
       <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2227,7 +3282,7 @@
       <c r="F5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -2256,7 +3311,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2274,7 +3329,7 @@
       <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2321,7 +3376,7 @@
       <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2350,10 +3405,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2368,7 +3423,7 @@
       <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2415,7 +3470,7 @@
       <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2462,7 +3517,7 @@
       <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -2509,7 +3564,7 @@
       <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2727,7 +3782,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2763,10 +3818,10 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="6"/>
@@ -2863,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC98B6C-0E12-1540-8AD9-B9956A135085}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>

--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA5705-1D21-244C-ACEC-816BEF4B1411}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E778A5-B447-4E4A-8BB3-22857EEC4642}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Atrributes" sheetId="6" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="Classes Coverage Data" sheetId="4" r:id="rId3"/>
     <sheet name="Methds Coverage Data" sheetId="3" r:id="rId4"/>
     <sheet name="Method Attributes" sheetId="2" r:id="rId5"/>
-    <sheet name="Project Attributrs" sheetId="7" r:id="rId6"/>
-    <sheet name="Class Attributes" sheetId="8" r:id="rId7"/>
-    <sheet name="Assertiom Kinds" sheetId="5" r:id="rId8"/>
-    <sheet name="Anti-Patterns" sheetId="9" r:id="rId9"/>
+    <sheet name="Class Attributes" sheetId="8" r:id="rId6"/>
+    <sheet name="Assertiom Kinds" sheetId="5" r:id="rId7"/>
+    <sheet name="Anti-Patterns" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="176">
   <si>
     <t>Project</t>
   </si>
@@ -626,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,9 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA3ADE-ADCC-A949-B813-D7C5E4B69CA1}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="160" workbookViewId="0">
+    <sheetView zoomScale="160" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1150,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="7">
@@ -1249,7 +1245,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,13 +1288,13 @@
       <c r="G1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13"/>
@@ -1397,7 +1393,7 @@
       <c r="E6" s="14">
         <v>0.88900000000000001</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>1</v>
       </c>
       <c r="G6" s="14">
@@ -1419,7 +1415,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
-      <c r="J7" s="23"/>
+      <c r="J7" s="22"/>
       <c r="L7" s="14"/>
       <c r="N7" s="13"/>
     </row>
@@ -1585,7 +1581,7 @@
       <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="13"/>
@@ -1872,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927F755C-2DB5-0948-ABDB-4FCE6356432A}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2414,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E2667-1089-6B4F-BADD-9330DD0F8293}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2497,7 +2493,24 @@
       <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -3049,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F50360-6DBA-B845-A032-C536B5B5A114}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3267,10 +3280,10 @@
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="6">
@@ -3314,10 +3327,10 @@
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="3">
@@ -3358,13 +3371,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="3">
@@ -3408,10 +3421,10 @@
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="3">
@@ -3455,10 +3468,10 @@
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="3">
@@ -3502,10 +3515,10 @@
       <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="3">
@@ -3552,7 +3565,7 @@
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="3">
@@ -3590,6 +3603,435 @@
       </c>
       <c r="O11" s="3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3598,18 +4040,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A7F6D3-AFCA-9E47-8233-69D0D0D75AA6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033F420-6C0D-2346-9C13-7B88AD9007EF}">
   <dimension ref="A1:L9"/>
   <sheetViews>
@@ -3858,7 +4288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C43C32-EBEA-D94F-972E-EAD3D07260B4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3914,17 +4344,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC98B6C-0E12-1540-8AD9-B9956A135085}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -3983,6 +4415,545 @@
       </c>
       <c r="O1" s="4"/>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageDataBase/MethodSampler.xlsx
+++ b/CoverageDataBase/MethodSampler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/TestsReposirotry/CoverageDataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E778A5-B447-4E4A-8BB3-22857EEC4642}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E4C5CD-D074-0F4F-99FE-367CAB478120}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{910FC520-E097-F243-B909-892CE60EBC1D}"/>
   </bookViews>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2411,7 +2411,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
